--- a/python_source/Timesheet Calculator v2/Timesheet Calculator v2/test/business_logic/testdata/ss_generator_testdata_002.xlsx
+++ b/python_source/Timesheet Calculator v2/Timesheet Calculator v2/test/business_logic/testdata/ss_generator_testdata_002.xlsx
@@ -148,11 +148,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,12 +169,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,16 +222,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -258,14 +249,14 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.77"/>
@@ -367,7 +358,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -454,10 +445,10 @@
         <v>480</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,11 +614,11 @@
       <c r="D22" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>480</v>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
